--- a/src/test/java/resources/ApcoaDataset.xlsx
+++ b/src/test/java/resources/ApcoaDataset.xlsx
@@ -4,6 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Staging" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Production" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="QA" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Feature\Country</t>
   </si>
@@ -34,25 +36,73 @@
     <t>Login</t>
   </si>
   <si>
-    <t>{"Email":"mrignayani@getmyparking.com","Password":"testing"}</t>
-  </si>
-  <si>
     <t>{"email":"testaustriastaging@gmail.com","password":"testing","username":"Test Automation"}</t>
   </si>
   <si>
+    <t>{"email":"austriaqa12@gmail.com","password":"testing","username":"Test Automation"}</t>
+  </si>
+  <si>
+    <t>{"email":"germanyqa20@gmail.com","password":"testing","username":"Test Automation"}</t>
+  </si>
+  <si>
+    <t>{"email":"dnsndk@gmail.com","password":"testing","username":"Dbdjdk Rndndn"}</t>
+  </si>
+  <si>
+    <t>{"email":"dnsndk@gmail.com","testing":"testing","username":"Test Automation"}</t>
+  </si>
+  <si>
     <t>Add Vehicle</t>
   </si>
   <si>
-    <t>{"Vehicleno":"W 1122 R"}</t>
-  </si>
-  <si>
     <t>{"lpr":"W 7777 R"}</t>
   </si>
   <si>
+    <t>{"lpr":"W AP 1"}</t>
+  </si>
+  <si>
+    <t>{"lpr":"W SPO"}</t>
+  </si>
+  <si>
+    <t>{"lpr":"IT 45"}</t>
+  </si>
+  <si>
     <t>Session</t>
   </si>
   <si>
-    <t>{"parkingname":"Ringturm - Vienna | APCOA","parkingidentifier":"Ringturm -"}</t>
+    <t>{"parkingname":"Ringturm - Vienna | APCOA","parkingidentifier":"Ringturm -","currency":"€"}</t>
+  </si>
+  <si>
+    <t>{"parkingname":"Ringturm - Vienna | APCOA","parkingidentifier":"Ringturm","currency":"€"}</t>
+  </si>
+  <si>
+    <t>{"parkingname":"MediaPark-MEAG-P6 | APCOA","parkingidentifier":"P6","currency":"€"}</t>
+  </si>
+  <si>
+    <t>{"parkingname":"Area Movicentro CN14 | APCOA","parkingidentifier":"Area Moviecentro CN14-","currency":"€"}</t>
+  </si>
+  <si>
+    <t>{"parkingname":"Ringturm - Vienna | APCOA","parkingidentifier":"Ringturm -","currencysymbol":"€","currency":"€"}</t>
+  </si>
+  <si>
+    <t>{"email":"nikhitaat@yopmail.com","password":"gmptesting123","username":"Nikhitaat Test"}</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>India2</t>
+  </si>
+  <si>
+    <t>New India</t>
+  </si>
+  <si>
+    <t>{"Email":"testautomationqa4@yopmail.com","Password":"testing""username":"Gmp Test"}</t>
+  </si>
+  <si>
+    <t>{"lpr":"W7777R"}</t>
+  </si>
+  <si>
+    <t>{"parkingname":"GMP_Automation","parkingidentifier":"GMP_Automation","currency":"€"}</t>
   </si>
 </sst>
 </file>
@@ -103,6 +153,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -312,7 +370,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.86"/>
     <col customWidth="1" min="2" max="2" width="55.0"/>
-    <col customWidth="1" min="3" max="3" width="58.57"/>
+    <col customWidth="1" min="3" max="3" width="73.29"/>
     <col customWidth="1" min="4" max="6" width="55.0"/>
   </cols>
   <sheetData>
@@ -347,41 +405,194 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="42.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="57.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.0"/>
+    <col customWidth="1" min="2" max="2" width="73.14"/>
+    <col customWidth="1" min="3" max="3" width="80.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="99.0" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="121.5" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="148.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.71"/>
+    <col customWidth="1" min="2" max="2" width="86.0"/>
+    <col customWidth="1" min="3" max="3" width="93.0"/>
+    <col customWidth="1" min="4" max="4" width="54.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="88.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="122.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="130.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/resources/ApcoaDataset.xlsx
+++ b/src/test/java/resources/ApcoaDataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Feature\Country</t>
   </si>
@@ -36,57 +36,66 @@
     <t>Login</t>
   </si>
   <si>
+    <t>{"email":"poland@gmail.com","password":"testing","username":"Test Automation"}</t>
+  </si>
+  <si>
+    <t>{"email":"austriaqa12@gmail.com","password":"testing","username":"Test Automation"}</t>
+  </si>
+  <si>
+    <t>{"email":"germanyqa20@gmail.com","password":"testing","username":"Test Automation"}</t>
+  </si>
+  <si>
+    <t>{"email":"dnsndk@gmail.com","password":"testing","username":"Dbdjdk Rndndn"}</t>
+  </si>
+  <si>
+    <t>{"email":"dnsndk@gmail.com","testing":"testing","username":"Test Automation"}</t>
+  </si>
+  <si>
+    <t>Add Vehicle</t>
+  </si>
+  <si>
+    <t>{"lpr":"P SPO"}</t>
+  </si>
+  <si>
+    <t>{"lpr":"W AP 1"}</t>
+  </si>
+  <si>
+    <t>{"lpr":"W BSS"}</t>
+  </si>
+  <si>
+    <t>{"lpr":"IT 45"}</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>{"parkingname":"Platinum towers | APCOA","parkingidentifier":"Platinum"}</t>
+  </si>
+  <si>
+    <t>{"parkingname":"Ringturm - Vienna | APCOA","parkingidentifier":"Ringturm","currency":"€"}</t>
+  </si>
+  <si>
+    <t>{"parkingname":"MediaPark-MEAG-P6 | APCOA","parkingidentifier":"P6","currency":"€"}</t>
+  </si>
+  <si>
+    <t>{"parkingname":"Area Movicentro CN14 | APCOA","parkingidentifier":"Area Moviecentro CN14-","currency":"€"}</t>
+  </si>
+  <si>
+    <t>{"parkingname":"Ringturm - Vienna | APCOA","parkingidentifier":"Ringturm -","currencysymbol":"€","currency":"€"}</t>
+  </si>
+  <si>
     <t>{"email":"testaustriastaging@gmail.com","password":"testing","username":"Test Automation"}</t>
   </si>
   <si>
-    <t>{"email":"austriaqa12@gmail.com","password":"testing","username":"Test Automation"}</t>
-  </si>
-  <si>
-    <t>{"email":"germanyqa20@gmail.com","password":"testing","username":"Test Automation"}</t>
-  </si>
-  <si>
-    <t>{"email":"dnsndk@gmail.com","password":"testing","username":"Dbdjdk Rndndn"}</t>
-  </si>
-  <si>
-    <t>{"email":"dnsndk@gmail.com","testing":"testing","username":"Test Automation"}</t>
-  </si>
-  <si>
-    <t>Add Vehicle</t>
+    <t>{"email":"sanchitgmp@getmyparking.com","password":"testing","username":"Sanchit Gupta"}</t>
   </si>
   <si>
     <t>{"lpr":"W 7777 R"}</t>
   </si>
   <si>
-    <t>{"lpr":"W AP 1"}</t>
-  </si>
-  <si>
-    <t>{"lpr":"W SPO"}</t>
-  </si>
-  <si>
-    <t>{"lpr":"IT 45"}</t>
-  </si>
-  <si>
-    <t>Session</t>
-  </si>
-  <si>
     <t>{"parkingname":"Ringturm - Vienna | APCOA","parkingidentifier":"Ringturm -","currency":"€"}</t>
   </si>
   <si>
-    <t>{"parkingname":"Ringturm - Vienna | APCOA","parkingidentifier":"Ringturm","currency":"€"}</t>
-  </si>
-  <si>
-    <t>{"parkingname":"MediaPark-MEAG-P6 | APCOA","parkingidentifier":"P6","currency":"€"}</t>
-  </si>
-  <si>
-    <t>{"parkingname":"Area Movicentro CN14 | APCOA","parkingidentifier":"Area Moviecentro CN14-","currency":"€"}</t>
-  </si>
-  <si>
-    <t>{"parkingname":"Ringturm - Vienna | APCOA","parkingidentifier":"Ringturm -","currencysymbol":"€","currency":"€"}</t>
-  </si>
-  <si>
-    <t>{"email":"nikhitaat@yopmail.com","password":"gmptesting123","username":"Nikhitaat Test"}</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -103,6 +112,9 @@
   </si>
   <si>
     <t>{"parkingname":"GMP_Automation","parkingidentifier":"GMP_Automation","currency":"€"}</t>
+  </si>
+  <si>
+    <t>{"parkingname":"GMP_Automation","parkingidentifier":"GMP_Automation","currencysymbol":"€"}</t>
   </si>
 </sst>
 </file>
@@ -490,10 +502,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" ht="121.5" customHeight="1">
@@ -501,10 +513,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="148.5" customHeight="1">
@@ -512,10 +524,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -544,13 +556,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="88.5" customHeight="1">
@@ -558,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="122.25" customHeight="1">
@@ -572,13 +584,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="130.5" customHeight="1">
@@ -586,13 +598,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
